--- a/sura.xlsx
+++ b/sura.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Surenproj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19A2E7-CCF1-40CB-9B75-3660CE34CF3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4BFB57-0082-4502-BCDF-BFEAB0EEC609}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +785,7 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
